--- a/doc/04_画面遷移図_持ちつ持たれつ.xlsx
+++ b/doc/04_画面遷移図_持ちつ持たれつ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月_グループワーク\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639597CF-217C-4A63-A2D0-912C99B0187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEEFD8B-0852-4F92-B0DE-D290E9E4EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25620" yWindow="-2220" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17685" yWindow="-2385" windowWidth="16920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -403,6 +403,14 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>　・日付</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1013,6 +1021,22 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　背景画像の設定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>　タグファイル分け</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1449,7 +1473,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HN,PW,Mail </a:t>
+            <a:t>PW,Mail </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2613,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_画面遷移図_持ちつ持たれつ.xlsx
+++ b/doc/04_画面遷移図_持ちつ持たれつ.xlsx
@@ -5,19 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\6月_グループワーク\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEEFD8B-0852-4F92-B0DE-D290E9E4EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0244A0-1A84-44D5-960A-AF1384FA7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17685" yWindow="-2385" windowWidth="16920" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4785" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -214,15 +226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>373857</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>659607</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>421482</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>707232</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -237,7 +249,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="373857" y="3267075"/>
+          <a:off x="659607" y="3207543"/>
           <a:ext cx="2190750" cy="1662112"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -305,15 +317,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　リスト</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　明日の予定</a:t>
+            <a:t>　タスクリスト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　メモ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -343,8 +355,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>559593</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>107155</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -360,7 +372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228599" y="6569866"/>
-          <a:ext cx="2474119" cy="3133727"/>
+          <a:ext cx="2474119" cy="2252665"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -387,36 +399,28 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスクリストの表示変更</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　タスクの詳細</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　・タイトル</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　・日付</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:t>日付のタスク</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・日付のタスクをリスト表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -443,77 +447,158 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　・メモ</a:t>
+            <a:t>〇｜タイトル｜カスタムセット名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇｜タイトル｜カスタムセット名</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　・繰り返しの設定</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ルーティン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　・タグ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タスクの新規登録</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ポップアップ表示</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未達タスクを当日のタスクに編集</a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇｜タイトル｜カスタムセット名</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇｜タイトル｜カスタムセット名</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>〇｜タイトル｜カスタムセット名</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -521,16 +606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -545,8 +630,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314699" y="3476625"/>
-          <a:ext cx="2724151" cy="2190750"/>
+          <a:off x="5557837" y="4600576"/>
+          <a:ext cx="2728913" cy="2128837"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -578,83 +663,169 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>HN,PW,Mail </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　タグによる褒められ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>励ましの設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・タグの設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　・メッセージの設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　背景の設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ご褒美</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Day</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　トロフィーの一覧</a:t>
-          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定ページ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カスタマイズページ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>トロフィーページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・ログアウト</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -663,15 +834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>421482</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>707232</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1421606</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>2381</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159544</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -688,15 +859,12 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2564607" y="3386138"/>
-          <a:ext cx="2119312" cy="711993"/>
+        <a:xfrm>
+          <a:off x="2850357" y="4038599"/>
+          <a:ext cx="4071937" cy="561977"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 17809"/>
-            <a:gd name="adj2" fmla="val 148830"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -726,13 +894,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>441721</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:colOff>477439</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
+      <xdr:colOff>488155</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>140491</xdr:rowOff>
     </xdr:to>
@@ -745,15 +913,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1465659" y="4929187"/>
-          <a:ext cx="3573" cy="1640679"/>
+          <a:off x="1501377" y="4452937"/>
+          <a:ext cx="10716" cy="2116929"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -836,68 +1001,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページ遷移せずリストの部分の表示を変更</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>35719</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>950119</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F7F1D1-A9AE-CF09-3E3B-215674AFA6B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3298032" y="2252662"/>
-          <a:ext cx="914400" cy="890588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページ遷移させる</a:t>
+            <a:t>カレンダーの日付をクリック時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -961,16 +1065,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -985,8 +1089,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3338512" y="7396163"/>
-          <a:ext cx="2733676" cy="1450181"/>
+          <a:off x="5576887" y="8096251"/>
+          <a:ext cx="1828800" cy="1631155"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1021,7 +1125,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　背景画像の設定</a:t>
+            <a:t>　・背景画像の設定</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1037,15 +1141,39 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　タグファイル分け</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　　タグファイルの中</a:t>
+            <a:t>　・カスタムセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カスタムセット</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>フォルダ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1069,7 +1197,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>右上ボタンで編集</a:t>
+            <a:t>右ボタンで編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1078,35 +1206,187 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1421606</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726281</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F103439-8017-2182-E529-A0309FA2914A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="1404937"/>
+          <a:ext cx="2250281" cy="1238249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログインページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID/PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を打ち込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　ログイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＊新規登録＊</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720328</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731044</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1643AF73-06CB-44E2-9BCF-C9CA4A33A820}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF46EE16-2115-445B-A258-C581844BB428}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="29" idx="0"/>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4683919" y="5514975"/>
-          <a:ext cx="21431" cy="1881188"/>
+          <a:off x="1744266" y="2643186"/>
+          <a:ext cx="10716" cy="564357"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1137,23 +1417,773 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1195387</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+        <xdr:cNvPr id="48" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFE32A1-5A1C-4CB1-93B1-3E2BB40A5CE3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34468E4-6789-4961-89CB-4D30790F7F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572374" y="8077201"/>
+          <a:ext cx="1785938" cy="1150144"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>設定ページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PW,Mail </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　アイコンの画像設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ご褒美</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Day</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69055</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>473868</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C98AFD-811F-4631-A69D-04045904A5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9594055" y="8086726"/>
+          <a:ext cx="1785938" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トロフィーページ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　数に応じて、獲得</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　全タスク達成数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　ログイン日数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321467</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ECA33E-7E45-4D27-A7D3-1993224BCA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7019924" y="6631782"/>
+          <a:ext cx="1347788" cy="1543049"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159545</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E4BD66-4D2C-4D85-A7CC-F9483D1C9462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8026003" y="5625704"/>
+          <a:ext cx="1357313" cy="3564730"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>178591</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150017</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B281081-61BD-4BBE-955D-A0C34847F526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941341" y="1552573"/>
+          <a:ext cx="2733676" cy="2128837"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>褒め</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>励ましワードのポップアップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・タスクにチェックを入れるとき、</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→褒めるやつ画面にドーンｯ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　・当日のタスクを全部こなす</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>→特別な演出（エフェクト）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ポップアップじゃない場合</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　ご褒美</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Day</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：お知らせに流す</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833436</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69055</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BEDB967-653B-4C05-BD75-8AA8FFC111A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976561" y="6579392"/>
+          <a:ext cx="2474119" cy="2040734"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスクの追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・カスタムセット名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・（日付）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・繰り返し設定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→毎日・毎週・毎月・毎年・カスタム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・メモ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・（優先度）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 追加取り消しボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>951308</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>150017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A8623B-EC0C-435D-A791-D8DB8BEEE94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1738312" y="4321969"/>
+          <a:ext cx="2475309" cy="2257423"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>976312</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE1F910-307A-4E45-A0C1-A101F3451D6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,8 +2191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4452937" y="6091237"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="3286125" y="4826793"/>
+          <a:ext cx="952500" cy="890588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,7 +2219,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページ遷移させる</a:t>
+            <a:t>タスクリストの＋ボタンをクリック時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1198,23 +2228,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>345281</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1319212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F103439-8017-2182-E529-A0309FA2914A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03890211-674F-47B5-8557-B293D6769BE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4581525" y="3538537"/>
+          <a:ext cx="952500" cy="890588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページアイコンの画像をクリック時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250032</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA28B24-0F52-42E6-AAD1-B816E4129568}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,219 +2313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345281" y="1381125"/>
-          <a:ext cx="2250281" cy="1238249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID/PW</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>を打ち込み</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　ログイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>＊もしかしたら新規登録＊</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>446484</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF46EE16-2115-445B-A258-C581844BB428}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1469232" y="2619374"/>
-          <a:ext cx="1190" cy="647701"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>547686</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34468E4-6789-4961-89CB-4D30790F7F06}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6215061" y="5291137"/>
-          <a:ext cx="1785938" cy="2128837"/>
+          <a:off x="3938587" y="1457324"/>
+          <a:ext cx="1693070" cy="1162052"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1461,47 +2341,38 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>設定ページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　</a:t>
-          </a:r>
+            <a:t>新規登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>PW,Mail </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　背景の設定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ご褒美</a:t>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Day</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の設定</a:t>
+            <a:t>Mail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/PW</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を決めて登録</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1511,147 +2382,99 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>726281</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="角丸四角形 1">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C98AFD-811F-4631-A69D-04045904A5B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F400CE-F379-4045-BB16-4C05E4F8C85C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8224836" y="5276849"/>
-          <a:ext cx="1785938" cy="2128837"/>
+          <a:off x="2869406" y="2024062"/>
+          <a:ext cx="1069181" cy="14288"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トロフィーページ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　金銀銅を横に陳列</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>//</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　全タスク達成数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　デフォルトのタグ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　カスタマイズ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　ログイン日数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345280</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>159544</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="カギ線コネクタ 9">
+        <xdr:cNvPr id="47" name="カギ線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ECA33E-7E45-4D27-A7D3-1993224BCA14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0D68C8-2FB2-4B51-819E-88272FE90CD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="48" idx="0"/>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6048375" y="4450557"/>
-          <a:ext cx="1059655" cy="840580"/>
+        <a:xfrm rot="5400000">
+          <a:off x="6023372" y="7197329"/>
+          <a:ext cx="1366838" cy="431007"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -1680,285 +2503,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>21432</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>283367</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="カギ線コネクタ 9">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60E4BD66-4D2C-4D85-A7CC-F9483D1C9462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFE32A1-5A1C-4CB1-93B1-3E2BB40A5CE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="49" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6048375" y="4450557"/>
-          <a:ext cx="3069430" cy="826292"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>59530</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>40480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>30956</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="角丸四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B281081-61BD-4BBE-955D-A0C34847F526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6822280" y="7970043"/>
-          <a:ext cx="2733676" cy="2128837"/>
+          <a:off x="6838950" y="7024688"/>
+          <a:ext cx="914400" cy="885825"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>褒め</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>励ましワードのポップアップ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　・タスクにチェックを入れるとき、褒めるワードが出てくる</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　・当日のタスクを全部完了したとき、褒めるワードが出てくる</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>→タグ、全部完了 ファイルがあり、タグの中身でフォルダ分け</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ポップアップじゃない場合</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr rtl="0"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　ログイン時</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　お知らせに流す</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" b="0">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:br>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-          </a:br>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ページ遷移させる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2637,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
